--- a/Technical Analysis and Data/WSB TA Bank List.xlsx
+++ b/Technical Analysis and Data/WSB TA Bank List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleejyounes/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terrancemcarthur/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59119312-64CD-9349-8477-96542F401944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272932C0-9D50-5648-979E-241A6AD49B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3A4D226E-2BBE-0D41-A095-C6D937ACFA07}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{3A4D226E-2BBE-0D41-A095-C6D937ACFA07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
   <si>
     <t>Name</t>
   </si>
@@ -402,13 +402,112 @@
   </si>
   <si>
     <t>Spoiler: This is the analysis I had on my screen for awhile and used to get into my VIX position</t>
+  </si>
+  <si>
+    <t>Delisted?</t>
+  </si>
+  <si>
+    <t>Bounced off 200 day SMA</t>
+  </si>
+  <si>
+    <t>If it breaks 10.51, I think we could test the lows at 4.40.</t>
+  </si>
+  <si>
+    <t>If it breaks 95.50 range, the next support is 81.80.</t>
+  </si>
+  <si>
+    <t>Bounced off support at 17.46, watch for the break below.</t>
+  </si>
+  <si>
+    <t>Next support I see is 17.40</t>
+  </si>
+  <si>
+    <t>I see 19.04 as next support</t>
+  </si>
+  <si>
+    <t>Bouncing on the SMA, next support is 9.39</t>
+  </si>
+  <si>
+    <t>Bouncing on support at 33.12 ish</t>
+  </si>
+  <si>
+    <t>Support at 19.81</t>
+  </si>
+  <si>
+    <t>Bouncing at support 8.54</t>
+  </si>
+  <si>
+    <t>Making new lows</t>
+  </si>
+  <si>
+    <t>Bouncing on support at 62.26, next leg down is 45 level</t>
+  </si>
+  <si>
+    <t>EMA has been support for awhile, good gap dwon now that its broken trend</t>
+  </si>
+  <si>
+    <t>Holding fairly strong, if we see a sell off we may test SMA at 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding support </t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>I am noticing quite  a few of these banks have gapped up onto a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support of some kind from the trump pump. Going to have to </t>
+  </si>
+  <si>
+    <t>continue watching because a lot of them could go whichever way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the overall market trends. </t>
+  </si>
+  <si>
+    <t>But I don’t really know anything so just my two cents</t>
+  </si>
+  <si>
+    <t>18.04 next support</t>
+  </si>
+  <si>
+    <t>37.22 next support</t>
+  </si>
+  <si>
+    <t>Massive gap on the yearly</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>I see the next support at 18.70. Breakthrough there  I'm watching for the $15.50 range.</t>
+  </si>
+  <si>
+    <t>We bounced on the 21.87 level which could have been alot to do with the Trump Pump .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we break that the next level i see is about $17.70. This is  a  pretty strong support </t>
+  </si>
+  <si>
+    <t>so keep an eye on that. If we break $17.70 I see about $11.26 which is far weaker. $BAC</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/TmdvYZw</t>
+  </si>
+  <si>
+    <t>^ALL TA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -429,8 +528,37 @@
       <color rgb="FF404040"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +581,28 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -531,11 +681,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -544,12 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,8 +708,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -877,671 +1038,904 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8E5095-BC6F-D147-A149-81F11D024EDB}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="8"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="80" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:27" ht="17" thickBot="1">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:27" ht="22" thickBot="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="M2" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" ht="20">
-      <c r="A2" s="11">
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="1:27" ht="21">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" ht="22" thickBot="1">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="X4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" ht="22" thickBot="1">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="X5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" ht="21">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:27" ht="22" thickBot="1">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="M7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:27" ht="22" thickBot="1">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="M8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="W8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="21">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="M9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="W9">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="20">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" thickBot="1">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="20">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="21">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="20">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="P10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:27" ht="21">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="J11" s="16"/>
+      <c r="P11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:27" ht="21">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="20">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:27" ht="21">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="P13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:27" ht="21">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="20">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="B14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:27" ht="22" thickBot="1">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" ht="22" thickBot="1">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="20">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="M16" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" ht="22" thickBot="1">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="M17" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" ht="22" thickBot="1">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="20">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="M18" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" ht="21">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="M19" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20" ht="21">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="20">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="M20" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" ht="21">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="B21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="M21" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" ht="21">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="20">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="B22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="M22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" ht="21">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="B23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="M23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="21">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="20">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="B24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="M24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="22" thickBot="1">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="B25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="M25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="21">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="20">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="B26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="M26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="21">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="B27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="M27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="21">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="20">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="B28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" ht="21">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="B29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" ht="22" thickBot="1">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="20">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="B30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="M30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="21">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="B31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="M31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="21">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="M32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22" thickBot="1">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="B33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="M33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="22" thickBot="1">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="B34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="M34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="21">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="B35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="M35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="21">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="B36" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="21">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="B37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="21">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="B38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="21">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="B39" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="22" thickBot="1">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="B40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" ht="22" thickBot="1">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="B41" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" ht="21">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="B42" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" ht="21">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="B43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" ht="22" thickBot="1">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="20">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="B44" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" ht="21">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="B45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" ht="21">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="20">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="B46" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="M46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="21">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="B47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:13" ht="21">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="20">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="B48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="21">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="B49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="22" thickBot="1">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="20">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="B50" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="21">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="B51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="22" thickBot="1">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="20">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="B52" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="21">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20">
-      <c r="A29" s="11">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20">
-      <c r="A30" s="11">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20">
-      <c r="A31" s="11">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20">
-      <c r="A32" s="11">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20">
-      <c r="A33" s="11">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20">
-      <c r="A34" s="11">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20">
-      <c r="A42" s="11">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20">
-      <c r="A43" s="11">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20">
-      <c r="A44" s="11">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20">
-      <c r="A45" s="11">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20">
-      <c r="A46" s="11">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20">
-      <c r="A47" s="11">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20">
-      <c r="A48" s="11">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20">
-      <c r="A49" s="11">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20">
-      <c r="A50" s="11">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20">
-      <c r="A51" s="11">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20">
-      <c r="A52" s="11">
-        <v>51</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20">
-      <c r="A53" s="11">
-        <v>52</v>
-      </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="20">
-      <c r="A55" s="10" t="s">
+      <c r="E53" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21">
+      <c r="A55" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="20">
-      <c r="B56" s="11" t="s">
+    <row r="56" spans="1:5" ht="21">
+      <c r="B56" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="20">
-      <c r="B57" s="11" t="s">
+    <row r="57" spans="1:5" ht="21">
+      <c r="B57" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="X2:Y2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="http://finance.yahoo.com/q?s=ASB" xr:uid="{82CDBD92-08DC-6746-B207-3F4F035F9F3E}"/>
@@ -1596,7 +1990,7 @@
     <hyperlink ref="C52" r:id="rId50" display="http://finance.yahoo.com/q?s=WAL" xr:uid="{1463DC0D-D091-FB41-B01F-6145E7C0FDF9}"/>
     <hyperlink ref="C53" r:id="rId51" display="http://finance.yahoo.com/q?s=ZBK" xr:uid="{68E478E4-7852-234D-92F0-08CBB008CDA9}"/>
     <hyperlink ref="C2" r:id="rId52" display="http://finance.yahoo.com/q?s=ALLY" xr:uid="{5048BA91-CD42-9B49-8B08-BBFFA0A277A9}"/>
-    <hyperlink ref="M8" r:id="rId53" xr:uid="{EC16C3B3-DE90-0A4C-83C9-3136BC194A89}"/>
+    <hyperlink ref="Z9" r:id="rId53" xr:uid="{EC16C3B3-DE90-0A4C-83C9-3136BC194A89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
